--- a/biology/Zoologie/Actinulida/Actinulida.xlsx
+++ b/biology/Zoologie/Actinulida/Actinulida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinulida est un ordre d'hydrozoaires marins de la sous-classe des Trachylinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Actinulida a été créé en 1958 par les biologistes Bertil Swedmark (d) (1918-1975) et Georges Teissier (1900-1972).
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de tout petits hydrozoaires médusoïdes sans phase polype, vivant isolés dans le sédiment. La coupole est très réduite et l'épiderme cilié. Les statocystes peuvent être présents ou non, en forme de massue et dérivés de tissu ecto- ou endodermal. Le cnidome peut contenir des stémotèles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de tout petits hydrozoaires médusoïdes sans phase polype, vivant isolés dans le sédiment. La coupole est très réduite et l'épiderme cilié. Les statocystes peuvent être présents ou non, en forme de massue et dérivés de tissu ecto- ou endodermal. Le cnidome peut contenir des stémotèles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (25 octobre 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (25 octobre 2022) :
 famille Halammohydridae Remane, 1927 — 1 genre
 famille Otohydridae Swedmark &amp; Teissier, 1958 — 1 genre</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bertil Swedmark et Georges Teissier, « Otohydra vagans n. g., n.sp., hydrozoaire des sables, apparenté aux Halammohydridées », Comptes rendus hebdomadaires des séances de l'Académie des sciences, Paris, vol. 247, no 2,‎ 1958, p. 238-240 (ISSN 0001-4036).</t>
         </is>
